--- a/Obesidad.xlsx
+++ b/Obesidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielmeneses/Desktop/Escuela/Concentración/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064BF5A6-819B-1143-8B6D-A4FC900738B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F4576F-6B2E-FF40-8701-148D6AD4B623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{477EE304-EC7A-C147-BCF2-05405487A23F}"/>
+    <workbookView xWindow="14700" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{477EE304-EC7A-C147-BCF2-05405487A23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663171DC-6913-BF41-ACE2-6DC04BA3B395}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,7 +790,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,11 +1100,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <f>A40-0.05</f>
         <v>1.71</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <f>B40-1</f>
         <v>94</v>
       </c>
@@ -1113,11 +1113,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <f t="shared" ref="A57:A71" si="4">A41-0.05</f>
         <v>1.39</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <f t="shared" ref="B57:B71" si="5">B41-1</f>
         <v>67</v>
       </c>
@@ -1126,11 +1126,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <f t="shared" si="4"/>
         <v>1.76</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
@@ -1139,11 +1139,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <f t="shared" si="4"/>
         <v>1.81</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
@@ -1152,11 +1152,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <f t="shared" si="4"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
@@ -1165,11 +1165,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
@@ -1178,11 +1178,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <f t="shared" si="4"/>
         <v>1.21</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
@@ -1191,11 +1191,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
@@ -1204,11 +1204,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <f t="shared" si="4"/>
         <v>1.91</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
@@ -1217,11 +1217,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <f t="shared" si="4"/>
         <v>1.21</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
@@ -1230,11 +1230,11 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <f t="shared" si="4"/>
         <v>1.45</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
@@ -1243,11 +1243,11 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <f t="shared" si="4"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
@@ -1256,11 +1256,11 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <f t="shared" si="4"/>
         <v>1.72</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
@@ -1269,11 +1269,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <f t="shared" si="4"/>
         <v>2.0100000000000002</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
@@ -1282,11 +1282,11 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <f t="shared" si="4"/>
         <v>1.67</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
@@ -1295,11 +1295,11 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <f t="shared" si="4"/>
         <v>1.43</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
@@ -1308,11 +1308,11 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <f>A56+0.1</f>
         <v>1.81</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <f>B56+2</f>
         <v>96</v>
       </c>
@@ -1321,24 +1321,24 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <f t="shared" ref="A73:A79" si="6">A57+0.1</f>
         <v>1.49</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <f t="shared" ref="B73:B79" si="7">B57+2</f>
         <v>69</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <f t="shared" si="6"/>
         <v>1.86</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
@@ -1347,11 +1347,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <f t="shared" si="6"/>
         <v>1.9100000000000001</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <f t="shared" si="7"/>
         <v>122</v>
       </c>
@@ -1360,11 +1360,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <f t="shared" si="6"/>
         <v>1.46</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
@@ -1373,11 +1373,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <f t="shared" si="7"/>
         <v>111</v>
       </c>
@@ -1386,11 +1386,11 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <f t="shared" si="6"/>
         <v>1.31</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
@@ -1399,11 +1399,11 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
